--- a/documentation/Categorical_Tbl 1_with tests.xlsx
+++ b/documentation/Categorical_Tbl 1_with tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFFF217-8A1A-4E96-ABEA-ACF41DF94AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3224F09-1F45-4780-A321-131D2F7C4637}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10290" yWindow="-13440" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="-13695" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1 Categorical" sheetId="1" r:id="rId1"/>
@@ -479,6 +479,15 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,15 +496,6 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,21 +864,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -996,7 +996,7 @@
         <f t="shared" ref="E4:E62" si="2">L4 &amp; ", " &amp; ROUND((M4*100), 0) &amp; "%"</f>
         <v>23498, 45%</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="6">
@@ -1037,7 +1037,7 @@
         <f t="shared" si="2"/>
         <v>20749, 39%</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="17"/>
       <c r="H5" s="6">
         <v>22646</v>
       </c>
@@ -1076,7 +1076,7 @@
         <f t="shared" si="2"/>
         <v>8541, 16%</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="18"/>
       <c r="H6" s="6">
         <v>9316</v>
       </c>
@@ -1118,7 +1118,7 @@
         <f t="shared" si="2"/>
         <v>809, 2%</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="6">
@@ -1159,7 +1159,7 @@
         <f t="shared" si="2"/>
         <v>2393, 5%</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="17"/>
       <c r="H8" s="6">
         <v>2657</v>
       </c>
@@ -1198,7 +1198,7 @@
         <f t="shared" si="2"/>
         <v>3264, 6%</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="17"/>
       <c r="H9" s="6">
         <v>3589</v>
       </c>
@@ -1237,7 +1237,7 @@
         <f t="shared" si="2"/>
         <v>5906, 11%</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="17"/>
       <c r="H10" s="6">
         <v>6543</v>
       </c>
@@ -1276,7 +1276,7 @@
         <f t="shared" si="2"/>
         <v>9571, 18%</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="17"/>
       <c r="H11" s="6">
         <v>10724</v>
       </c>
@@ -1315,7 +1315,7 @@
         <f t="shared" si="2"/>
         <v>30845, 58%</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="18"/>
       <c r="H12" s="6">
         <v>33719</v>
       </c>
@@ -1357,7 +1357,7 @@
         <f t="shared" si="2"/>
         <v>48416, 92%</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H13" s="6">
@@ -1398,7 +1398,7 @@
         <f t="shared" si="2"/>
         <v>4372, 8%</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="18"/>
       <c r="H14" s="6">
         <v>5160</v>
       </c>
@@ -1440,7 +1440,7 @@
         <f t="shared" si="2"/>
         <v>2026, 4%</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="16">
         <v>9.2969999999999997E-2</v>
       </c>
       <c r="H15" s="6">
@@ -1481,7 +1481,7 @@
         <f t="shared" si="2"/>
         <v>50206, 95%</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="17"/>
       <c r="H16" s="6">
         <v>55262</v>
       </c>
@@ -1520,7 +1520,7 @@
         <f t="shared" ref="E17" si="8">L17 &amp; ", " &amp; ROUND((M17*100), 0) &amp; "%"</f>
         <v>556, 1%</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="18"/>
       <c r="H17" s="6">
         <v>607</v>
       </c>
@@ -1562,7 +1562,7 @@
         <f t="shared" si="2"/>
         <v>45032, 85%</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H18" s="6">
@@ -1603,7 +1603,7 @@
         <f t="shared" si="2"/>
         <v>3528, 7%</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="17"/>
       <c r="H19" s="6">
         <v>3939</v>
       </c>
@@ -1642,7 +1642,7 @@
         <f t="shared" si="2"/>
         <v>777, 1%</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="17"/>
       <c r="H20" s="6">
         <v>930</v>
       </c>
@@ -1681,7 +1681,7 @@
         <f t="shared" si="2"/>
         <v>506, 1%</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="17"/>
       <c r="H21" s="6">
         <v>557</v>
       </c>
@@ -1720,7 +1720,7 @@
         <f t="shared" ref="E22" si="12">L22 &amp; ", " &amp; ROUND((M22*100), 0) &amp; "%"</f>
         <v>241, 0%</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="17"/>
       <c r="H22" s="6">
         <v>261</v>
       </c>
@@ -1759,7 +1759,7 @@
         <f t="shared" si="2"/>
         <v>1804, 3%</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="17"/>
       <c r="H23" s="6">
         <v>2056</v>
       </c>
@@ -1798,7 +1798,7 @@
         <f t="shared" si="2"/>
         <v>900, 2%</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="18"/>
       <c r="H24" s="6">
         <v>994</v>
       </c>
@@ -1840,7 +1840,7 @@
         <f t="shared" si="2"/>
         <v>37021, 70%</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H25" s="6">
@@ -1881,7 +1881,7 @@
         <f t="shared" si="2"/>
         <v>14011, 27%</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="17"/>
       <c r="H26" s="6">
         <v>15588</v>
       </c>
@@ -1920,7 +1920,7 @@
         <f t="shared" si="2"/>
         <v>848, 2%</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="17"/>
       <c r="H27" s="6">
         <v>982</v>
       </c>
@@ -1959,7 +1959,7 @@
         <f t="shared" si="2"/>
         <v>908, 2%</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="18"/>
       <c r="H28" s="6">
         <v>1010</v>
       </c>
@@ -2001,7 +2001,7 @@
         <f t="shared" si="2"/>
         <v>2165, 4%</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H29" s="6">
@@ -2042,7 +2042,7 @@
         <f t="shared" ref="E30" si="15">L30 &amp; ", " &amp; ROUND((M30*100), 0) &amp; "%"</f>
         <v>14811, 28%</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="17"/>
       <c r="H30" s="6">
         <v>16241</v>
       </c>
@@ -2081,7 +2081,7 @@
         <f t="shared" si="2"/>
         <v>15839, 30%</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="17"/>
       <c r="H31" s="6">
         <v>17559</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>0.30004925361824658</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2120,7 @@
         <f t="shared" si="2"/>
         <v>19874, 38%</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="17"/>
       <c r="H32" s="6">
         <v>21742</v>
       </c>
@@ -2159,7 +2159,7 @@
         <f t="shared" si="2"/>
         <v>99, 0%</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="18"/>
       <c r="H33" s="6">
         <v>106</v>
       </c>
@@ -2201,7 +2201,7 @@
         <f t="shared" si="2"/>
         <v>978, 2%</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H34" s="6">
@@ -2242,7 +2242,7 @@
         <f t="shared" si="2"/>
         <v>1806, 3%</v>
       </c>
-      <c r="F35" s="14"/>
+      <c r="F35" s="17"/>
       <c r="H35" s="6">
         <v>2111</v>
       </c>
@@ -2281,7 +2281,7 @@
         <f t="shared" si="2"/>
         <v>2730, 5%</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="17"/>
       <c r="H36" s="6">
         <v>3148</v>
       </c>
@@ -2320,7 +2320,7 @@
         <f t="shared" si="2"/>
         <v>4265, 8%</v>
       </c>
-      <c r="F37" s="14"/>
+      <c r="F37" s="17"/>
       <c r="H37" s="6">
         <v>4774</v>
       </c>
@@ -2359,7 +2359,7 @@
         <f t="shared" si="2"/>
         <v>5882, 11%</v>
       </c>
-      <c r="F38" s="14"/>
+      <c r="F38" s="17"/>
       <c r="H38" s="6">
         <v>6491</v>
       </c>
@@ -2398,7 +2398,7 @@
         <f t="shared" si="2"/>
         <v>8540, 16%</v>
       </c>
-      <c r="F39" s="14"/>
+      <c r="F39" s="17"/>
       <c r="H39" s="6">
         <v>9305</v>
       </c>
@@ -2437,7 +2437,7 @@
         <f t="shared" si="2"/>
         <v>8811, 17%</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="17"/>
       <c r="H40" s="6">
         <v>9636</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0.16691293475789953</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>56</v>
       </c>
@@ -2476,7 +2476,7 @@
         <f t="shared" si="2"/>
         <v>14063, 27%</v>
       </c>
-      <c r="F41" s="14"/>
+      <c r="F41" s="17"/>
       <c r="H41" s="6">
         <v>15230</v>
       </c>
@@ -2515,7 +2515,7 @@
         <f t="shared" si="2"/>
         <v>5713, 11%</v>
       </c>
-      <c r="F42" s="15"/>
+      <c r="F42" s="18"/>
       <c r="H42" s="6">
         <v>6271</v>
       </c>
@@ -2557,7 +2557,7 @@
         <f t="shared" si="2"/>
         <v>417, 1%</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H43" s="6">
@@ -2598,7 +2598,7 @@
         <f t="shared" si="2"/>
         <v>13169, 25%</v>
       </c>
-      <c r="F44" s="14"/>
+      <c r="F44" s="17"/>
       <c r="H44" s="6">
         <v>14340</v>
       </c>
@@ -2637,7 +2637,7 @@
         <f t="shared" si="2"/>
         <v>23474, 44%</v>
       </c>
-      <c r="F45" s="14"/>
+      <c r="F45" s="17"/>
       <c r="H45" s="6">
         <v>25572</v>
       </c>
@@ -2676,7 +2676,7 @@
         <f t="shared" si="2"/>
         <v>14962, 28%</v>
       </c>
-      <c r="F46" s="14"/>
+      <c r="F46" s="17"/>
       <c r="H46" s="6">
         <v>16871</v>
       </c>
@@ -2715,7 +2715,7 @@
         <f t="shared" si="2"/>
         <v>766, 1%</v>
       </c>
-      <c r="F47" s="15"/>
+      <c r="F47" s="18"/>
       <c r="H47" s="6">
         <v>870</v>
       </c>
@@ -2757,7 +2757,7 @@
         <f t="shared" si="2"/>
         <v>7640, 14%</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H48" s="6">
@@ -2798,7 +2798,7 @@
         <f t="shared" si="2"/>
         <v>44872, 85%</v>
       </c>
-      <c r="F49" s="14"/>
+      <c r="F49" s="17"/>
       <c r="H49" s="6">
         <v>26639</v>
       </c>
@@ -2837,7 +2837,7 @@
         <f t="shared" si="2"/>
         <v>276, 1%</v>
       </c>
-      <c r="F50" s="15"/>
+      <c r="F50" s="18"/>
       <c r="H50" s="6">
         <v>22921</v>
       </c>
@@ -2879,7 +2879,7 @@
         <f t="shared" si="2"/>
         <v>40598, 77%</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H51" s="6">
@@ -2920,7 +2920,7 @@
         <f t="shared" si="2"/>
         <v>12069, 23%</v>
       </c>
-      <c r="F52" s="14"/>
+      <c r="F52" s="17"/>
       <c r="H52" s="6">
         <v>49261</v>
       </c>
@@ -2959,7 +2959,7 @@
         <f t="shared" si="2"/>
         <v>121, 0%</v>
       </c>
-      <c r="F53" s="15"/>
+      <c r="F53" s="18"/>
       <c r="H53" s="6">
         <v>299</v>
       </c>
@@ -3001,7 +3001,7 @@
         <f t="shared" si="2"/>
         <v>50700, 96%</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="16">
         <v>4.1759999999999999E-2</v>
       </c>
       <c r="H54" s="6">
@@ -3042,7 +3042,7 @@
         <f t="shared" si="2"/>
         <v>1967, 4%</v>
       </c>
-      <c r="F55" s="14"/>
+      <c r="F55" s="17"/>
       <c r="H55" s="6">
         <v>2203</v>
       </c>
@@ -3081,7 +3081,7 @@
         <f t="shared" si="2"/>
         <v>121, 0%</v>
       </c>
-      <c r="F56" s="15"/>
+      <c r="F56" s="18"/>
       <c r="H56" s="6">
         <v>133</v>
       </c>
@@ -3123,7 +3123,7 @@
         <f t="shared" si="2"/>
         <v>8551, 16%</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="16" t="s">
         <v>79</v>
       </c>
       <c r="H57" s="6">
@@ -3164,7 +3164,7 @@
         <f t="shared" si="2"/>
         <v>16858, 32%</v>
       </c>
-      <c r="F58" s="14"/>
+      <c r="F58" s="17"/>
       <c r="H58" s="6">
         <v>18111</v>
       </c>
@@ -3203,7 +3203,7 @@
         <f t="shared" si="2"/>
         <v>17056, 32%</v>
       </c>
-      <c r="F59" s="14"/>
+      <c r="F59" s="17"/>
       <c r="H59" s="6">
         <v>18797</v>
       </c>
@@ -3242,7 +3242,7 @@
         <f t="shared" si="2"/>
         <v>7249, 14%</v>
       </c>
-      <c r="F60" s="14"/>
+      <c r="F60" s="17"/>
       <c r="H60" s="6">
         <v>8436</v>
       </c>
@@ -3281,7 +3281,7 @@
         <f t="shared" si="2"/>
         <v>2896, 5%</v>
       </c>
-      <c r="F61" s="14"/>
+      <c r="F61" s="17"/>
       <c r="H61" s="6">
         <v>3569</v>
       </c>
@@ -3320,7 +3320,7 @@
         <f t="shared" si="2"/>
         <v>178, 0%</v>
       </c>
-      <c r="F62" s="15"/>
+      <c r="F62" s="18"/>
       <c r="H62" s="6">
         <v>202</v>
       </c>
